--- a/biology/Botanique/Sherardia_arvensis/Sherardia_arvensis.xlsx
+++ b/biology/Botanique/Sherardia_arvensis/Sherardia_arvensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sherardia ne compte qu'une seule espèce : Sherardia arvensis, la rubéole des champs, shérardie ou gratteron fleuri. C'est une plante à fleurs, proche des Gaillets, de la famille des Rubiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Sherardia vient du botaniste anglais William Sherard dont Sébastien Vaillant[2], Johann Jacob Dillenius puis Carl von Linné ont reconnu le rôle en introduisant son nom dans la taxonomie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Sherardia vient du botaniste anglais William Sherard dont Sébastien Vaillant, Johann Jacob Dillenius puis Carl von Linné ont reconnu le rôle en introduisant son nom dans la taxonomie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle, plus ou moins couchée, velue. Feuilles elliptiques, verticillées par 4 ou 6. Les fleurs sont très petites, mauves, par capitules et entourées de bractées foliacées.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Terrains cultivés ou nus, pelouses.
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Afrique du Nord, Asie du sud-ouest.
 </t>
@@ -635,7 +655,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rubéole des champs.
